--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Ncam1-Robo3.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Ncam1-Robo3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,12 +76,18 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
     <t>M1</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +95,6 @@
   </si>
   <si>
     <t>Robo3</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,43 +525,43 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>8.33960249746732</v>
+        <v>0.6816986666666667</v>
       </c>
       <c r="H2">
-        <v>8.33960249746732</v>
+        <v>2.045096</v>
       </c>
       <c r="I2">
-        <v>0.1747836997796429</v>
+        <v>0.01110711092851045</v>
       </c>
       <c r="J2">
-        <v>0.1747836997796429</v>
+        <v>0.01110711092851045</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.85875200391648</v>
+        <v>1.935833</v>
       </c>
       <c r="N2">
-        <v>1.85875200391648</v>
+        <v>5.807499</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -567,16 +570,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>15.50125285403426</v>
+        <v>1.319654774989333</v>
       </c>
       <c r="R2">
-        <v>15.50125285403426</v>
+        <v>11.876892974904</v>
       </c>
       <c r="S2">
-        <v>0.1747836997796429</v>
+        <v>0.01110711092851045</v>
       </c>
       <c r="T2">
-        <v>0.1747836997796429</v>
+        <v>0.01110711092851045</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,43 +587,43 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.235814878305286</v>
+        <v>8.469728666666667</v>
       </c>
       <c r="H3">
-        <v>0.235814878305286</v>
+        <v>25.409186</v>
       </c>
       <c r="I3">
-        <v>0.004942273556299754</v>
+        <v>0.1379997063732729</v>
       </c>
       <c r="J3">
-        <v>0.004942273556299754</v>
+        <v>0.1379997063732729</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.85875200391648</v>
+        <v>1.935833</v>
       </c>
       <c r="N3">
-        <v>1.85875200391648</v>
+        <v>5.807499</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -629,16 +632,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.4383213776032712</v>
+        <v>16.39598025397933</v>
       </c>
       <c r="R3">
-        <v>0.4383213776032712</v>
+        <v>147.563822285814</v>
       </c>
       <c r="S3">
-        <v>0.004942273556299754</v>
+        <v>0.1379997063732729</v>
       </c>
       <c r="T3">
-        <v>0.004942273556299754</v>
+        <v>0.1379997063732729</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +649,185 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0.3748256666666667</v>
+      </c>
+      <c r="H4">
+        <v>1.124477</v>
+      </c>
+      <c r="I4">
+        <v>0.006107141559886993</v>
+      </c>
+      <c r="J4">
+        <v>0.006107141559886992</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1.935833</v>
+      </c>
+      <c r="N4">
+        <v>5.807499</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>0.7255998947803333</v>
+      </c>
+      <c r="R4">
+        <v>6.530399053022999</v>
+      </c>
+      <c r="S4">
+        <v>0.006107141559886993</v>
+      </c>
+      <c r="T4">
+        <v>0.006107141559886992</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>0.1449283333333333</v>
+      </c>
+      <c r="H5">
+        <v>0.434785</v>
+      </c>
+      <c r="I5">
+        <v>0.002361358696634494</v>
+      </c>
+      <c r="J5">
+        <v>0.002361358696634494</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1.935833</v>
+      </c>
+      <c r="N5">
+        <v>5.807499</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>0.2805570503016667</v>
+      </c>
+      <c r="R5">
+        <v>2.525013452715</v>
+      </c>
+      <c r="S5">
+        <v>0.002361358696634494</v>
+      </c>
+      <c r="T5">
+        <v>0.002361358696634494</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
+      <c r="B6" t="s">
         <v>25</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>39.1384284118003</v>
-      </c>
-      <c r="H4">
-        <v>39.1384284118003</v>
-      </c>
-      <c r="I4">
-        <v>0.8202740266640574</v>
-      </c>
-      <c r="J4">
-        <v>0.8202740266640574</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>1.85875200391648</v>
-      </c>
-      <c r="N4">
-        <v>1.85875200391648</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <v>72.7486322405755</v>
-      </c>
-      <c r="R4">
-        <v>72.7486322405755</v>
-      </c>
-      <c r="S4">
-        <v>0.8202740266640574</v>
-      </c>
-      <c r="T4">
-        <v>0.8202740266640574</v>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>51.70379466666666</v>
+      </c>
+      <c r="H6">
+        <v>155.111384</v>
+      </c>
+      <c r="I6">
+        <v>0.8424246824416953</v>
+      </c>
+      <c r="J6">
+        <v>0.8424246824416952</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1.935833</v>
+      </c>
+      <c r="N6">
+        <v>5.807499</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>100.0899119409573</v>
+      </c>
+      <c r="R6">
+        <v>900.8092074686159</v>
+      </c>
+      <c r="S6">
+        <v>0.8424246824416953</v>
+      </c>
+      <c r="T6">
+        <v>0.8424246824416952</v>
       </c>
     </row>
   </sheetData>
